--- a/biology/Zoologie/Collisions_d'oiseaux_sur_les_vitres/Collisions_d'oiseaux_sur_les_vitres.xlsx
+++ b/biology/Zoologie/Collisions_d'oiseaux_sur_les_vitres/Collisions_d'oiseaux_sur_les_vitres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Collisions_d%27oiseaux_sur_les_vitres</t>
+          <t>Collisions_d'oiseaux_sur_les_vitres</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les collisions d'oiseaux sur les vitres constituent une source importante de mortalité aviaire d'origine anthropique. Elles sont dues au fait que les oiseaux n'arrivent pas toujours à identifier les vitres comme des obstacles, ils peuvent donc se diriger vers elles et être surpris par un obstacle à la présence insoupçonnée. Le choc est souvent fatal sur le coup et, lorsqu'il ne l'est pas, la survie de l'oiseau est généralement compromise à court terme en raison des lésions internes qu'elles provoquent, par exemple une hémorragie qui le tue quelques heures après.
 Il est estimé qu'environ un milliard d'oiseaux meurent par an en Amérique du Nord suite à des collisions avec des surfaces vitrées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Collisions_d%27oiseaux_sur_les_vitres</t>
+          <t>Collisions_d'oiseaux_sur_les_vitres</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les oiseaux peuvent se entrer en collision sur les vitres en raison de la transparence de celles-ci qui les rend invisibles. Les vitres peuvent également refléter l'environnement, les oiseaux peuvent donc s'en approcher en pensant s'approcher d'un arbre ou s'envoler vers le ciel[1]. La perte d'habitats naturels par l'artificialisation des sols, et plus particulièrement pour la construction de bâtiments recouverts de vitres, augmente les risques que ces collisions se produisent[2]. Les lumières artificielles peuvent également désorienter les oiseaux qui se dirigent la nuit en suivant les étoiles.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les oiseaux peuvent se entrer en collision sur les vitres en raison de la transparence de celles-ci qui les rend invisibles. Les vitres peuvent également refléter l'environnement, les oiseaux peuvent donc s'en approcher en pensant s'approcher d'un arbre ou s'envoler vers le ciel. La perte d'habitats naturels par l'artificialisation des sols, et plus particulièrement pour la construction de bâtiments recouverts de vitres, augmente les risques que ces collisions se produisent. Les lumières artificielles peuvent également désorienter les oiseaux qui se dirigent la nuit en suivant les étoiles.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Collisions_d%27oiseaux_sur_les_vitres</t>
+          <t>Collisions_d'oiseaux_sur_les_vitres</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Prévention et soin</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mortalité aviaire induite par les vitres est un sujet particulièrement abordé par les groupes de protection de la vie sauvage et en particulier des oiseaux. Ceux-ci donnent des conseils aux particuliers et professionnels afin de limiter les risques de collision et prendre soin des oiseaux blessés[3].
-Certains oiseaux sont capables de voir le rayonnement ultraviolet, permettant d'envisager l'application d'une peinture capable de refléter les rayons ultraviolets pour les rendre visibles. Cependant, le produit doit être renouvelé régulièrement, n'est pas visible par toutes les espèces d'oiseaux, et reflète mal la lumière le matin lorsque les collisions sont les plus fréquentes, réduisant son intérêt. Des films avec motifs peuvent être efficaces, à condition que l'écart entre les motifs soit faible. L'extinction de l'éclairage des bâtiments permet de diminuer les risques que les oiseaux soient attirés par la lumière et entrent en collision avec leurs vitres[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mortalité aviaire induite par les vitres est un sujet particulièrement abordé par les groupes de protection de la vie sauvage et en particulier des oiseaux. Ceux-ci donnent des conseils aux particuliers et professionnels afin de limiter les risques de collision et prendre soin des oiseaux blessés.
+Certains oiseaux sont capables de voir le rayonnement ultraviolet, permettant d'envisager l'application d'une peinture capable de refléter les rayons ultraviolets pour les rendre visibles. Cependant, le produit doit être renouvelé régulièrement, n'est pas visible par toutes les espèces d'oiseaux, et reflète mal la lumière le matin lorsque les collisions sont les plus fréquentes, réduisant son intérêt. Des films avec motifs peuvent être efficaces, à condition que l'écart entre les motifs soit faible. L'extinction de l'éclairage des bâtiments permet de diminuer les risques que les oiseaux soient attirés par la lumière et entrent en collision avec leurs vitres.
 Si quelqu'un constate qu'un oiseau s'est blessé suite à une collision, il lui est recommandé de le mettre au calme entouré d'un tissu épais et dans un carton percé, sans le nourrir, et d'appeler le centre de sauvegarde le plus proche afin qu'il puisse le prendre en charge ou conseiller de le relâcher selon le cas.
 </t>
         </is>
